--- a/resources/book.xlsx
+++ b/resources/book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelsurov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislav.bubnov/PycharmProjects/qa_guru_hw7/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B63AB2E6-2C08-5346-AFE4-607C61BA8259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79A86D6-8E4E-874C-B5C4-0BCA925F1A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{0AA35C76-8B64-354D-A09D-8879FD7E863A}"/>
   </bookViews>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,16 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Отчество</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Иван</t>
   </si>
@@ -53,25 +43,49 @@
     <t>Иванович</t>
   </si>
   <si>
-    <t xml:space="preserve">Андрей </t>
-  </si>
-  <si>
-    <t>Сергеев</t>
-  </si>
-  <si>
-    <t>Анатольевич</t>
-  </si>
-  <si>
-    <t>Евгений</t>
-  </si>
-  <si>
-    <t>Тест</t>
-  </si>
-  <si>
-    <t>Четвертин</t>
-  </si>
-  <si>
-    <t>Владимирович</t>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>должность</t>
+  </si>
+  <si>
+    <t>Разработчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергеев </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергей </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергеевич </t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Петрович</t>
+  </si>
+  <si>
+    <t>Тестировщик</t>
+  </si>
+  <si>
+    <t>Полетов</t>
+  </si>
+  <si>
+    <t>Антонович</t>
+  </si>
+  <si>
+    <t>Аналитик</t>
+  </si>
+  <si>
+    <t>фамилия</t>
+  </si>
+  <si>
+    <t>отчество</t>
   </si>
 </sst>
 </file>
@@ -424,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C001029-93FB-0949-9A97-400D507D6374}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,50 +450,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -489,31 +506,17 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>111</v>
-      </c>
-      <c r="C6">
-        <v>222</v>
-      </c>
-      <c r="D6">
-        <v>333</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
